--- a/ColorSpace_transformation/MacLeodBoyntonMollonScaling/DanilovaMollon2025_Table1.xlsx
+++ b/ColorSpace_transformation/MacLeodBoyntonMollonScaling/DanilovaMollon2025_Table1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhb/Dropbox (Personal)/aaaVirtualDesktop/ColorSpaces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangfang/Documents/MATLAB/projects/ColorEllipsoids/ColorSpace_transformation/MacLeodBoyntonMollonScaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B665C43-9252-A040-A28D-04992974AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80F44B-FFB7-9D40-893D-1106999BA5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42720" yWindow="5720" windowWidth="38280" windowHeight="25800" xr2:uid="{B72264EB-5853-E047-A8DF-77C68C9A7B26}"/>
+    <workbookView xWindow="9520" yWindow="16680" windowWidth="51200" windowHeight="26720" xr2:uid="{B72264EB-5853-E047-A8DF-77C68C9A7B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,22 +495,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB81BD05-734B-4749-ADE9-B350642B8279}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="308" zoomScaleNormal="308" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
+    <col min="11" max="11" width="33.83203125" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="42" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -574,7 +577,7 @@
         <v>0.6552</v>
       </c>
       <c r="E2">
-        <v>0.27</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -715,7 +718,7 @@
         <v>0.62</v>
       </c>
       <c r="E5">
-        <v>0.27</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -762,7 +765,7 @@
         <v>0.75</v>
       </c>
       <c r="E6">
-        <v>0.27</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F6">
         <v>0</v>
